--- a/public/documents/Civil Warrior.xlsx
+++ b/public/documents/Civil Warrior.xlsx
@@ -14,117 +14,117 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37" count="37">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="76" count="76">
+  <x:si>
+    <x:t>name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mobileno</x:t>
+  </x:si>
+  <x:si>
+    <x:t>enrollment</x:t>
+  </x:si>
+  <x:si>
+    <x:t>branch</x:t>
+  </x:si>
+  <x:si>
+    <x:t>semester</x:t>
+  </x:si>
+  <x:si>
+    <x:t>email</x:t>
+  </x:si>
   <x:si>
     <x:t>college_name</x:t>
   </x:si>
   <x:si>
-    <x:t>email</x:t>
-  </x:si>
-  <x:si>
-    <x:t>semester</x:t>
-  </x:si>
-  <x:si>
-    <x:t>branch</x:t>
-  </x:si>
-  <x:si>
-    <x:t>enrollment</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mobileno</x:t>
-  </x:si>
-  <x:si>
-    <x:t>name</x:t>
-  </x:si>
-  <x:si>
     <x:t>teamId</x:t>
   </x:si>
   <x:si>
+    <x:t>Monik Dhanani</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7778951112</x:t>
+  </x:si>
+  <x:si>
+    <x:t>151110106017</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Civil</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>monikdhanani8922@gmail.com</x:t>
+  </x:si>
+  <x:si>
     <x:t>MAHAVIR SWAMI COLLEGE OF ENGINEERING &amp; TECHNOLOGY</x:t>
   </x:si>
   <x:si>
+    <x:t>CV906314</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nihar sheladiya</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9925464936</x:t>
+  </x:si>
+  <x:si>
+    <x:t>151110106081</x:t>
+  </x:si>
+  <x:si>
+    <x:t>niharsheladiya99254@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sagar Roy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9099234696</x:t>
+  </x:si>
+  <x:si>
+    <x:t>151110106076</x:t>
+  </x:si>
+  <x:si>
+    <x:t>vadadoriyakeyur@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vivek Dilipkumar zalavadiya</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8866243431</x:t>
+  </x:si>
+  <x:si>
+    <x:t>151110106099</x:t>
+  </x:si>
+  <x:si>
     <x:t>vivekzalavadiya7@gmail.com</x:t>
   </x:si>
   <x:si>
-    <x:t>4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Civil</x:t>
-  </x:si>
-  <x:si>
-    <x:t>151110106099</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8866243431</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Vivek Dilipkumar zalavadiya</x:t>
-  </x:si>
-  <x:si>
     <x:t>CV474129</x:t>
   </x:si>
   <x:si>
+    <x:t>Keyur vadadoriya</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8980206849</x:t>
+  </x:si>
+  <x:si>
+    <x:t>151110106092</x:t>
+  </x:si>
+  <x:si>
     <x:t>patelvivek346@gmail.com</x:t>
   </x:si>
   <x:si>
-    <x:t>151110106092</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8980206849</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Keyur vadadoriya</x:t>
+    <x:t>Axar tarsariya</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9737925272</x:t>
+  </x:si>
+  <x:si>
+    <x:t>151110106091</x:t>
   </x:si>
   <x:si>
     <x:t>axartarsariya5@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>151110106091</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9737925272</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Axar tarsariya</x:t>
-  </x:si>
-  <x:si>
-    <x:t>monikdhanani8922@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>151110106017</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7778951112</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Monik Dhanani</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CV906314</x:t>
-  </x:si>
-  <x:si>
-    <x:t>niharsheladiya99254@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>151110106081</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9925464936</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nihar sheladiya</x:t>
-  </x:si>
-  <x:si>
-    <x:t>vadadoriyakeyur@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>151110106076</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9099234696</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sagar Roy</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -541,25 +541,25 @@
     </x:row>
     <x:row r="3" spans="1:8">
       <x:c r="A3" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F3" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G3" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H3" s="0" t="s">
         <x:v>15</x:v>
@@ -567,25 +567,25 @@
     </x:row>
     <x:row r="4" spans="1:8">
       <x:c r="A4" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G4" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H4" s="0" t="s">
         <x:v>15</x:v>
@@ -593,25 +593,25 @@
     </x:row>
     <x:row r="5" spans="1:8">
       <x:c r="A5" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F5" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G5" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H5" s="0" t="s">
         <x:v>28</x:v>
@@ -619,25 +619,25 @@
     </x:row>
     <x:row r="6" spans="1:8">
       <x:c r="A6" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F6" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="G6" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H6" s="0" t="s">
         <x:v>28</x:v>
@@ -645,25 +645,25 @@
     </x:row>
     <x:row r="7" spans="1:8">
       <x:c r="A7" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F7" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="G7" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H7" s="0" t="s">
         <x:v>28</x:v>
